--- a/Trait_term_reconciliation.xlsx
+++ b/Trait_term_reconciliation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fasch/Desktop/Rosid_UFBI_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanfolk/Documents/GitHub/fagales_traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52DD984-023E-2349-AB53-9BA58B559D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1260" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2580" yWindow="1000" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="5" r:id="rId1"/>
@@ -20,10 +21,21 @@
     <sheet name="Lf pet sep    Remove list" sheetId="7" r:id="rId6"/>
     <sheet name="Color    remove list" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="892">
   <si>
     <t>corymbose cymes</t>
   </si>
@@ -2714,7 +2726,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2791,47 +2803,7 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2887,6 +2859,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3154,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,10 +3216,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
@@ -3455,19 +3430,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A26:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3475,7 +3448,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3872,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -4160,23 +4133,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P337"/>
   <sheetViews>
     <sheetView topLeftCell="B64" workbookViewId="0">
@@ -8772,7 +8745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8852,7 +8825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
